--- a/Results/flexibility.xlsx
+++ b/Results/flexibility.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">functional.forms</t>
   </si>
@@ -23,61 +23,61 @@
     <t xml:space="preserve">dPTH + CorrCa24u + Age_Years</t>
   </si>
   <si>
+    <t xml:space="preserve">190.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rms::rcs(dPTH, 3) + CorrCa24u + Age_Years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rms::rcs(dPTH, 4) + CorrCa24u + Age_Years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">190.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rms::rcs(dPTH, 5) + CorrCa24u + Age_Years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dPTH + rms::rcs(CorrCa24u, 3) + Age_Years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dPTH + rms::rcs(CorrCa24u, 4) + Age_Years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">193.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dPTH + rms::rcs(CorrCa24u, 5) + Age_Years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dPTH + CorrCa24u + rms::rcs(Age_Years, 3)</t>
+  </si>
+  <si>
     <t xml:space="preserve">191.3</t>
   </si>
   <si>
-    <t xml:space="preserve">rms::rcs(dPTH, 3) + CorrCa24u + Age_Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">191.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rms::rcs(dPTH, 4) + CorrCa24u + Age_Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rms::rcs(dPTH, 5) + CorrCa24u + Age_Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dPTH + rms::rcs(CorrCa24u, 3) + Age_Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">193.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dPTH + rms::rcs(CorrCa24u, 4) + Age_Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dPTH + rms::rcs(CorrCa24u, 5) + Age_Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">197.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dPTH + CorrCa24u + rms::rcs(Age_Years, 3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.2</t>
-  </si>
-  <si>
     <t xml:space="preserve">dPTH + CorrCa24u + rms::rcs(Age_Years, 4)</t>
   </si>
   <si>
-    <t xml:space="preserve">194.3</t>
+    <t xml:space="preserve">193.2</t>
   </si>
   <si>
     <t xml:space="preserve">dPTH + CorrCa24u + rms::rcs(Age_Years, 5)</t>
   </si>
   <si>
-    <t xml:space="preserve">193.6</t>
+    <t xml:space="preserve">192.1</t>
   </si>
   <si>
     <t xml:space="preserve">rms::rcs(dPTH, 4) + rms::rcs(CorrCa24u, 3) + Age_Years</t>
@@ -92,10 +92,13 @@
     <t xml:space="preserve">dPTH + rms::rcs(CorrCa24u, 3) + rms::rcs(Age_Years, 3)</t>
   </si>
   <si>
-    <t xml:space="preserve">194.0</t>
+    <t xml:space="preserve">192.6</t>
   </si>
   <si>
     <t xml:space="preserve">rms::rcs(dPTH, 4) + rms::rcs(CorrCa24u, 3) + rms::rcs(Age_Years, 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.8</t>
   </si>
 </sst>
 </file>
@@ -520,7 +523,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -544,7 +547,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
